--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:13:19+00:00</t>
+    <t>2025-11-28T01:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:33:25+00:00</t>
+    <t>2025-11-28T01:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:50:23+00:00</t>
+    <t>2025-11-28T01:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:53:43+00:00</t>
+    <t>2025-11-28T01:54:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:19:47+00:00</t>
+    <t>2025-11-28T14:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:30:06+00:00</t>
+    <t>2025-11-28T23:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T23:45:15+00:00</t>
+    <t>2025-11-29T18:33:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T18:33:05+00:00</t>
+    <t>2025-11-29T20:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:11:04+00:00</t>
+    <t>2025-11-29T20:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:12:38+00:00</t>
+    <t>2025-11-29T20:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:13:59+00:00</t>
+    <t>2025-11-29T20:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:15:31+00:00</t>
+    <t>2025-11-29T20:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:17:30+00:00</t>
+    <t>2025-11-29T20:18:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:18:47+00:00</t>
+    <t>2025-11-29T20:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T20:28:17+00:00</t>
+    <t>2025-11-29T22:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:25:22+00:00</t>
+    <t>2025-11-29T22:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:30:40+00:00</t>
+    <t>2025-11-29T22:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:14+00:00</t>
+    <t>2025-11-29T22:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:31:57+00:00</t>
+    <t>2025-11-29T22:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:32:34+00:00</t>
+    <t>2025-11-29T22:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:36:45+00:00</t>
+    <t>2025-11-29T22:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:37:43+00:00</t>
+    <t>2025-11-29T22:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T22:52:23+00:00</t>
+    <t>2025-11-29T23:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T23:02:36+00:00</t>
+    <t>2025-11-29T23:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T09:47:54+00:00</t>
+    <t>2025-12-25T09:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:09:41+00:00</t>
+    <t>2025-12-25T10:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:22:11+00:00</t>
+    <t>2025-12-25T10:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:31:12+00:00</t>
+    <t>2025-12-25T10:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T10:39:21+00:00</t>
+    <t>2025-12-25T10:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
